--- a/eda/egov/beneficios_egov.xlsx
+++ b/eda/egov/beneficios_egov.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lazar\Master-Dissertation\eda\egov\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43DDFA41-8987-407E-A5B9-D7263EAAD1BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D98B6BE-DBD1-4B5C-9C37-BC064231A7CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,18 +36,9 @@
     <t>Martins e Veiga (2022)</t>
   </si>
   <si>
-    <t>Um nível alto de governo eletrônico podem faci litar negócios pela diminuição do fardo das regulações em diversas áreas de negócio</t>
-  </si>
-  <si>
-    <t>O impacto do governo eletrônico pode impulsionar a inova ção ou até mesmo ser um componente importante para entender como a economia é transformada devido à tecnologia</t>
-  </si>
-  <si>
     <t>Kotenok et al. (2020)</t>
   </si>
   <si>
-    <t>Sua pesquisa examinou a relação entre governo eletrônico e corrupção nos estados dos Estados Unidos encontraram que o governo eletrônico aumentou tanto as condenações por corrupção, quanto a per cepção de corrupção.</t>
-  </si>
-  <si>
     <t>Sugiarti and Ak bar (2024)</t>
   </si>
   <si>
@@ -60,7 +51,16 @@
     <t>Os resultados encontrados indicam claramente que níveis mais altos de governo eletrônico estão associados a melhores resultados no combate à corrupção.</t>
   </si>
   <si>
-    <t>Na União Europeia (até 2020) observou-se a correlação obser vada entre o nível de desenvolvimento do governo eletrônico e as áreas ambiental, social e econômica parece ser de grande importância, pois implica que a digitalização dos processos administrativos pode ter um im pacto real no desenvolvimento sustentável, promovendo, assim, mudanças positivas em todas as suas três esferas.</t>
+    <t>Sua pesquisa examinou a relação entre governo eletrônico e corrupção nos estados dos Estados Unidos encontraram que o governo eletrônico aumentou tanto as condenações por corrupção, quanto a percepção de corrupção.</t>
+  </si>
+  <si>
+    <t>Um nível alto de governo eletrônico podem facilitar negócios pela diminuição do fardo das regulações em diversas áreas de negócio.</t>
+  </si>
+  <si>
+    <t>O impacto do governo eletrônico pode impulsionar a inovação ou até mesmo ser um componente importante para entender como a economia é transformada devido à tecnologia.</t>
+  </si>
+  <si>
+    <t>Na União Europeia (até 2020) observou-se a correlação obser vada entre o nível de desenvolvimento do governo eletrônico e as áreas ambiental, social e econômica parece ser de grande importância, pois implica que a digitalização dos processos administrativos pode ter um impacto real no desenvolvimento sustentável, promovendo, assim, mudanças positivas em todas as suas três esferas.</t>
   </si>
 </sst>
 </file>
@@ -381,7 +381,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -399,18 +399,18 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -418,12 +418,12 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -431,10 +431,10 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/eda/egov/beneficios_egov.xlsx
+++ b/eda/egov/beneficios_egov.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lazar\Master-Dissertation\eda\egov\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D98B6BE-DBD1-4B5C-9C37-BC064231A7CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF6BF4EE-E861-4BF4-BE69-4F8ECE4A7471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,9 +39,6 @@
     <t>Kotenok et al. (2020)</t>
   </si>
   <si>
-    <t>Sugiarti and Ak bar (2024)</t>
-  </si>
-  <si>
     <t>Martins et al. (2018)</t>
   </si>
   <si>
@@ -60,7 +57,10 @@
     <t>O impacto do governo eletrônico pode impulsionar a inovação ou até mesmo ser um componente importante para entender como a economia é transformada devido à tecnologia.</t>
   </si>
   <si>
-    <t>Na União Europeia (até 2020) observou-se a correlação obser vada entre o nível de desenvolvimento do governo eletrônico e as áreas ambiental, social e econômica parece ser de grande importância, pois implica que a digitalização dos processos administrativos pode ter um impacto real no desenvolvimento sustentável, promovendo, assim, mudanças positivas em todas as suas três esferas.</t>
+    <t>Sugiarti e Ak bar (2024)</t>
+  </si>
+  <si>
+    <t>Na União Europeia (até 2020) observou-se a correlação observada entre o nível de desenvolvimento do governo eletrônico e as áreas ambiental, social e econômica parece ser de grande importância, pois implica que a digitalização dos processos administrativos pode ter um impacto real no desenvolvimento sustentável, promovendo, assim, mudanças positivas em todas as suas três esferas.</t>
   </si>
 </sst>
 </file>
@@ -399,10 +399,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -410,7 +410,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -418,12 +418,12 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -431,10 +431,10 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
